--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45125</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45118</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45118</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45118</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45118</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>45123</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45127</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45131</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45125</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45118</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45118</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45118</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45118</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>45123</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45127</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45131</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45125</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45118</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45118</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45118</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45118</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>45123</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45127</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45131</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx"; "A 33036-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png; "A 33036-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx; "A 33036-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx; "A 33036-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx; "A 33036-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx; "A 33036-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -633,23 +633,23 @@
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png"; "A 33036-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx"; "A 33036-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx"; "A 33036-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx"; "A 33036-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx"; "A 33036-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx"; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png"; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx"; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx"; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx"; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx"; "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -648,9 +648,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx")</f>
-        <v/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx"; "A 33036-2023")</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45125</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,29 +629,28 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx, "A 33036-2023"")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx", "A 33036-2023")</f>
         <v/>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx"; "A 33036-2023")</t>
-        </is>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx", "A 33036-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -664,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -726,7 +725,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -783,7 +782,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -840,7 +839,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -902,7 +901,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -964,7 +963,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1021,7 +1020,7 @@
         <v>45118</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1083,7 +1082,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1140,7 +1139,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1202,7 +1201,7 @@
         <v>45118</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1259,7 +1258,7 @@
         <v>45118</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1321,7 +1320,7 @@
         <v>45118</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1377,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1435,7 +1434,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1492,7 +1491,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1554,7 +1553,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1616,7 +1615,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1673,7 +1672,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1730,7 +1729,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1792,7 +1791,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1849,7 +1848,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1910,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1968,7 +1967,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2025,7 +2024,7 @@
         <v>45123</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2082,7 +2081,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2144,7 +2143,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2206,7 +2205,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2268,7 +2267,7 @@
         <v>45127</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2330,7 +2329,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2387,7 +2386,7 @@
         <v>45131</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2449,7 +2448,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx, "A 33036-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="T2">

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45125</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45118</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45118</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45118</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45118</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>45123</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45127</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45131</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45125</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45118</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45118</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45118</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45118</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>45123</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45127</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45131</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45125</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45118</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45118</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45118</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45118</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>45123</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45127</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45131</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45125</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/artfynd/A 33036-2023.xlsx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/artfynd/A 33036-2023.xlsx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/kartor/A 33036-2023.png", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/kartor/A 33036-2023.png", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomål/A 33036-2023.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomål/A 33036-2023.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/klagomålsmail/A 33036-2023.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomålsmail/A 33036-2023.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsyn/A 33036-2023.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/tillsyn/A 33036-2023.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SOLLEFTEA/tillsynsmail/A 33036-2023.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/tillsynsmail/A 33036-2023.docx", "A 33036-2023")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45118</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45118</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45118</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45118</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>45123</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45127</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45131</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45125</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/artfynd/A 33036-2023.xlsx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/artfynd/A 33036-2023 artfynd.xlsx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/kartor/A 33036-2023.png", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/kartor/A 33036-2023 karta.png", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomål/A 33036-2023.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomål/A 33036-2023 fsc-klagomål.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomålsmail/A 33036-2023.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomålsmail/A 33036-2023 fsc-klagomål mail.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/tillsyn/A 33036-2023.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/tillsyn/A 33036-2023 tillsynsbegäran.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/tillsynsmail/A 33036-2023.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/ti,llsynsmail/A 33036-2023 tillsynsbegäran mail.docx", "A 33036-2023")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45118</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45118</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45118</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45118</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>45123</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45127</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45131</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -637,11 +637,11 @@
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomål/A 33036-2023 fsc-klagomål.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomål/A 33036-2023 FSC-klagomål.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomålsmail/A 33036-2023 fsc-klagomål mail.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/klagomålsmail/A 33036-2023 FSC-klagomål mail.docx", "A 33036-2023")</f>
         <v/>
       </c>
       <c r="X2">
@@ -649,7 +649,7 @@
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/ti,llsynsmail/A 33036-2023 tillsynsbegäran mail.docx", "A 33036-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2283/tillsynsmail/A 33036-2023 tillsynsbegäran mail.docx", "A 33036-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45125</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45118</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45118</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45118</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45118</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>45123</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45127</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45131</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45125</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45118</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45118</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45118</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45118</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>45123</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45127</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45131</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45125</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45118</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45118</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45118</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45118</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>45123</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45127</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45131</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45125</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45118</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45118</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45118</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45118</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>45123</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45127</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45131</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_SOLLEFTEA/Översikt SOLLEFTEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>45125</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         <v>45113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45118</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>45118</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45118</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>45118</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45118</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45119</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45119</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>45119</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45119</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45120</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45121</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45121</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45121</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45121</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>45123</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>45124</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45127</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>45128</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45131</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>45134</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
